--- a/ppt精细化抽取/模型解析码表—20250814_2.xlsx
+++ b/ppt精细化抽取/模型解析码表—20250814_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="总的码表" sheetId="1" r:id="rId1"/>
@@ -1118,16 +1118,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2090,8 +2090,8 @@
   <sheetPr/>
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2922,7 +2922,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" ht="43.2" hidden="1" spans="1:12">
+    <row r="37" ht="43.2" spans="1:12">
       <c r="A37" s="2" t="s">
         <v>165</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="K37" s="37"/>
       <c r="L37" s="37"/>
     </row>
-    <row r="38" ht="28.8" hidden="1" spans="1:12">
+    <row r="38" ht="28.8" spans="1:12">
       <c r="A38" s="2" t="s">
         <v>171</v>
       </c>
@@ -2974,7 +2974,7 @@
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
     </row>
-    <row r="39" ht="15.6" hidden="1" spans="1:12">
+    <row r="39" ht="15.6" spans="1:12">
       <c r="A39" s="2" t="s">
         <v>175</v>
       </c>
